--- a/STR_CRL_API_COMALM/Plantillas/PlantillaPortalEAR.xlsx
+++ b/STR_CRL_API_COMALM/Plantillas/PlantillaPortalEAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\ElectroPeru\prueba\Plantilla\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27A24253-5F7E-403E-9500-B8995C122105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42AB450-3E73-4A5E-8618-2A7CAA8E62F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{CD8B8EDF-2E82-4CC1-BA2C-2BAB29EAC3A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{CD8B8EDF-2E82-4CC1-BA2C-2BAB29EAC3A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Cabecera" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>Fecha de Contabilización</t>
   </si>
@@ -233,6 +233,21 @@
   </si>
   <si>
     <t>EXO</t>
+  </si>
+  <si>
+    <t>P00000000011</t>
+  </si>
+  <si>
+    <t>XCXCXCXC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01 -  Factura                           </t>
+  </si>
+  <si>
+    <t>F002</t>
+  </si>
+  <si>
+    <t>PG</t>
   </si>
 </sst>
 </file>
@@ -349,9 +364,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -389,7 +404,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -495,7 +510,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -637,7 +652,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -647,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE84C8F-1908-4106-BA2A-199591CD3020}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C22"/>
+    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -710,11 +725,46 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="B2" s="8"/>
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>45418</v>
+      </c>
+      <c r="C2" s="8">
+        <v>45418</v>
+      </c>
+      <c r="D2" s="8">
+        <v>45418</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576 C1:C1048576 D1:D1048576" xr:uid="{B4EEA976-7621-456B-8048-4DDF1F4A88F9}">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:D1048576" xr:uid="{B4EEA976-7621-456B-8048-4DDF1F4A88F9}">
       <formula1>36161</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{9EAC8DD7-4385-4FE2-8D1A-905965F2F4F5}">
@@ -766,7 +816,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E10:E11"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -809,6 +859,29 @@
       </c>
       <c r="I1" s="5" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2200000139</v>
+      </c>
+      <c r="C2" s="7">
+        <v>400</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4030202</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
